--- a/output/StructureDefinition-CoreMedicamentoCl.xlsx
+++ b/output/StructureDefinition-CoreMedicamentoCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-28T15:41:40-03:00</t>
+    <t>2024-01-08T08:41:20-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CoreMedicamentoCl.xlsx
+++ b/output/StructureDefinition-CoreMedicamentoCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-08T08:41:20-03:00</t>
+    <t>2024-02-15T09:17:26-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CoreMedicamentoCl.xlsx
+++ b/output/StructureDefinition-CoreMedicamentoCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T09:17:26-03:00</t>
+    <t>2024-02-15T14:15:38-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CoreMedicamentoCl.xlsx
+++ b/output/StructureDefinition-CoreMedicamentoCl.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.6</t>
+    <t>1.8.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T14:15:38-03:00</t>
+    <t>2024-02-19T16:06:45-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CoreMedicamentoCl.xlsx
+++ b/output/StructureDefinition-CoreMedicamentoCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-19T16:06:45-03:00</t>
+    <t>2024-05-08T11:32:37-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Chile (http://hl7chile.cl, chair@hl7chile.cl)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1559,17 +1559,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.37109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="37.21875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.16015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="41.94921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="37.84375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.1640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="30.390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="31.81640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1578,25 +1578,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="48.828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="48.5546875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="194.96484375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="99.8984375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="193.3984375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="99.69140625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="255.0" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>

--- a/output/StructureDefinition-CoreMedicamentoCl.xlsx
+++ b/output/StructureDefinition-CoreMedicamentoCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-08T11:32:37-04:00</t>
+    <t>2024-05-08T11:46:20-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CoreMedicamentoCl.xlsx
+++ b/output/StructureDefinition-CoreMedicamentoCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-19T16:06:45-03:00</t>
+    <t>2024-03-04T15:29:29-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CoreMedicamentoCl.xlsx
+++ b/output/StructureDefinition-CoreMedicamentoCl.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.7</t>
+    <t>1.8.11</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-08T11:46:20-04:00</t>
+    <t>2024-06-13T17:23:26-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CoreMedicamentoCl.xlsx
+++ b/output/StructureDefinition-CoreMedicamentoCl.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.11</t>
+    <t>1.8.12</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T14:21:27-04:00</t>
+    <t>2024-06-21T18:30:18-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CoreMedicamentoCl.xlsx
+++ b/output/StructureDefinition-CoreMedicamentoCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T18:30:18-04:00</t>
+    <t>2024-06-23T21:41:08-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CoreMedicamentoCl.xlsx
+++ b/output/StructureDefinition-CoreMedicamentoCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-23T21:41:08-04:00</t>
+    <t>2024-06-24T20:56:59-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CoreMedicamentoCl.xlsx
+++ b/output/StructureDefinition-CoreMedicamentoCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-24T20:56:59-04:00</t>
+    <t>2024-06-25T09:03:09-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CoreMedicamentoCl.xlsx
+++ b/output/StructureDefinition-CoreMedicamentoCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T09:03:09-04:00</t>
+    <t>2024-06-25T09:29:41-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CoreMedicamentoCl.xlsx
+++ b/output/StructureDefinition-CoreMedicamentoCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T09:29:41-04:00</t>
+    <t>2024-06-26T18:33:17-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CoreMedicamentoCl.xlsx
+++ b/output/StructureDefinition-CoreMedicamentoCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-26T18:33:17-04:00</t>
+    <t>2024-06-27T08:59:20-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CoreMedicamentoCl.xlsx
+++ b/output/StructureDefinition-CoreMedicamentoCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-18T16:07:51-04:00</t>
+    <t>2024-07-26T10:55:50-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1188,36 +1188,37 @@
     <t>Medication.ingredient.item[x]</t>
   </si>
   <si>
+    <t>CodeableConcept
+Reference(Substance|Medication)</t>
+  </si>
+  <si>
+    <t>The actual ingredient or content</t>
+  </si>
+  <si>
+    <t>The actual ingredient - either a substance (simple ingredient) or another medication of a medication.</t>
+  </si>
+  <si>
+    <t>The ingredient may reference a substance (for example, amoxicillin) or another medication (for example in the case of a compounded product, Glaxal Base).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>.player</t>
+  </si>
+  <si>
+    <t>RXC-2-Component Code  if medication: RXO-1-Requested Give Code / RXE-2-Give Code / RXD-2-Dispense/Give Code / RXG-4-Give Code / RXA-5-Administered Code</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.item[x]:itemReference</t>
+  </si>
+  <si>
+    <t>itemReference</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reference(Substance|Medication)
 </t>
-  </si>
-  <si>
-    <t>The actual ingredient or content</t>
-  </si>
-  <si>
-    <t>The actual ingredient - either a substance (simple ingredient) or another medication of a medication.</t>
-  </si>
-  <si>
-    <t>The ingredient may reference a substance (for example, amoxicillin) or another medication (for example in the case of a compounded product, Glaxal Base).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>.player</t>
-  </si>
-  <si>
-    <t>RXC-2-Component Code  if medication: RXO-1-Requested Give Code / RXE-2-Give Code / RXD-2-Dispense/Give Code / RXG-4-Give Code / RXA-5-Administered Code</t>
-  </si>
-  <si>
-    <t>Medication.ingredient.item[x]:itemReference</t>
-  </si>
-  <si>
-    <t>itemReference</t>
   </si>
   <si>
     <t>Componente del fármaco, se usará texto</t>
@@ -10206,7 +10207,7 @@
         <v>78</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>380</v>
+        <v>137</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>374</v>
@@ -10227,31 +10228,31 @@
         <v>304</v>
       </c>
       <c r="AL73" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN73" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>382</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>374</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>88</v>
@@ -10266,7 +10267,7 @@
         <v>78</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="L74" t="s" s="2">
         <v>385</v>
@@ -10343,13 +10344,13 @@
         <v>304</v>
       </c>
       <c r="AL74" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>382</v>
       </c>
     </row>
     <row r="75" hidden="true">

--- a/output/StructureDefinition-CoreMedicamentoCl.xlsx
+++ b/output/StructureDefinition-CoreMedicamentoCl.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$62</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3856" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2266" uniqueCount="400">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-26T10:55:50-04:00</t>
+    <t>2024-07-29T12:24:08-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -508,38 +508,19 @@
 </t>
   </si>
   <si>
-    <t>Slices definidos para la identificación del fármaco</t>
-  </si>
-  <si>
-    <t>Slice definidos en base al elemento value, el cual debe ser especifico para cada uno de los slices definidos</t>
-  </si>
-  <si>
-    <t>Slice definidos en base al elemento value. Sólo se pueden usar los discriminadores definidos para los dos slices generados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:system}
-</t>
+    <t>Identificador de Medicamento</t>
+  </si>
+  <si>
+    <t>Business identifier for this medication.</t>
+  </si>
+  <si>
+    <t>The serial number could be included as an identifier.</t>
   </si>
   <si>
     <t>.id</t>
   </si>
   <si>
     <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Medication.identifier:ISP</t>
-  </si>
-  <si>
-    <t>ISP</t>
-  </si>
-  <si>
-    <t>Número Registro ISP del fármaco</t>
-  </si>
-  <si>
-    <t>The serial number could be included as an identifier.</t>
-  </si>
-  <si>
-    <t>Medication.identifier:ISP.id</t>
   </si>
   <si>
     <t>Medication.identifier.id</t>
@@ -561,9 +542,6 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>Medication.identifier:ISP.extension</t>
-  </si>
-  <si>
     <t>Medication.identifier.extension</t>
   </si>
   <si>
@@ -579,13 +557,10 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>Medication.identifier:ISP.use</t>
-  </si>
-  <si>
     <t>Medication.identifier.use</t>
   </si>
   <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
+    <t>usual | official | temp | secondary | old</t>
   </si>
   <si>
     <t>The purpose of this identifier.</t>
@@ -610,9 +585,6 @@
   </si>
   <si>
     <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>Medication.identifier:ISP.type</t>
   </si>
   <si>
     <t>Medication.identifier.type</t>
@@ -649,13 +621,10 @@
     <t>CX.5</t>
   </si>
   <si>
-    <t>Medication.identifier:ISP.system</t>
-  </si>
-  <si>
     <t>Medication.identifier.system</t>
   </si>
   <si>
-    <t>URL de validación</t>
+    <t>Sistema de identificación</t>
   </si>
   <si>
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
@@ -667,9 +636,6 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>http://ISP.cl/registro</t>
-  </si>
-  <si>
     <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
@@ -682,13 +648,10 @@
     <t>CX.4 / EI-2-4</t>
   </si>
   <si>
-    <t>Medication.identifier:ISP.value</t>
-  </si>
-  <si>
     <t>Medication.identifier.value</t>
   </si>
   <si>
-    <t>Valor del número de registro</t>
+    <t>Valor del identificador</t>
   </si>
   <si>
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
@@ -707,9 +670,6 @@
   </si>
   <si>
     <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>Medication.identifier:ISP.period</t>
   </si>
   <si>
     <t>Medication.identifier.period</t>
@@ -734,9 +694,6 @@
     <t>CX.7 + CX.8</t>
   </si>
   <si>
-    <t>Medication.identifier:ISP.assigner</t>
-  </si>
-  <si>
     <t>Medication.identifier.assigner</t>
   </si>
   <si>
@@ -762,187 +719,10 @@
     <t>CX.4 / (CX.4,CX.9,CX.10)</t>
   </si>
   <si>
-    <t>Medication.identifier:IdComer</t>
-  </si>
-  <si>
-    <t>IdComer</t>
-  </si>
-  <si>
-    <t>Identificador asignado por el laboratorio fabricante</t>
-  </si>
-  <si>
-    <t>Business identifier for this medication.</t>
-  </si>
-  <si>
-    <t>Medication.identifier:IdComer.id</t>
-  </si>
-  <si>
-    <t>Medication.identifier:IdComer.extension</t>
-  </si>
-  <si>
-    <t>Medication.identifier:IdComer.use</t>
-  </si>
-  <si>
-    <t>Medication.identifier:IdComer.type</t>
-  </si>
-  <si>
-    <t>Medication.identifier:IdComer.system</t>
-  </si>
-  <si>
-    <t>http://fab.cl/registro</t>
-  </si>
-  <si>
-    <t>Medication.identifier:IdComer.value</t>
-  </si>
-  <si>
-    <t>Valor del identificador</t>
-  </si>
-  <si>
-    <t>Medication.identifier:IdComer.period</t>
-  </si>
-  <si>
-    <t>Medication.identifier:IdComer.assigner</t>
-  </si>
-  <si>
-    <t>Medication.identifier:TFCDId</t>
-  </si>
-  <si>
-    <t>TFCDId</t>
-  </si>
-  <si>
-    <t>Identificador de Descripción del fármaco</t>
-  </si>
-  <si>
-    <t>Este identificador se obtiene a travez del TFC por medio de un identificador de Descripción del fármaco</t>
-  </si>
-  <si>
-    <t>Medication.identifier:TFCDId.id</t>
-  </si>
-  <si>
-    <t>Medication.identifier:TFCDId.extension</t>
-  </si>
-  <si>
-    <t>Medication.identifier:TFCDId.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old</t>
-  </si>
-  <si>
-    <t>Para este caso se fuerza a que su uso sea "official"</t>
-  </si>
-  <si>
-    <t>official</t>
-  </si>
-  <si>
-    <t>Medication.identifier:TFCDId.type</t>
-  </si>
-  <si>
-    <t>Medication.identifier:TFCDId.system</t>
-  </si>
-  <si>
-    <t>El system debe tener el siguiente valor "http://minsal.cl/semantikos/description-id"</t>
-  </si>
-  <si>
-    <t>http://minsal.cl/semantikos/description-id DEBE ser usada para este slice. Estos EndPoint deberán estar disponibles pronto</t>
-  </si>
-  <si>
-    <t>http://minsal.cl/semantikos/description-id</t>
-  </si>
-  <si>
-    <t>Medication.identifier:TFCDId.value</t>
-  </si>
-  <si>
-    <t>Valor del código</t>
-  </si>
-  <si>
-    <t>Medication.identifier:TFCDId.period</t>
-  </si>
-  <si>
-    <t>Medication.identifier:TFCDId.assigner</t>
-  </si>
-  <si>
-    <t>Medication.identifier:TFCCId</t>
-  </si>
-  <si>
-    <t>TFCCId</t>
-  </si>
-  <si>
-    <t>Medication.identifier:TFCCId.id</t>
-  </si>
-  <si>
-    <t>Medication.identifier:TFCCId.extension</t>
-  </si>
-  <si>
-    <t>Medication.identifier:TFCCId.use</t>
-  </si>
-  <si>
-    <t>Medication.identifier:TFCCId.type</t>
-  </si>
-  <si>
-    <t>Medication.identifier:TFCCId.system</t>
-  </si>
-  <si>
-    <t>El system debe tener el siguiente valor: "http://minsal.cl/semantikos/concept-id"</t>
-  </si>
-  <si>
-    <t>http://minsal.cl/semantikos/concept-id DEBE ser usada para este slice. Estos EndPoint deberán estar disponibles pronto</t>
-  </si>
-  <si>
-    <t>http://minsal.cl/semantikos/concept-id</t>
-  </si>
-  <si>
-    <t>Medication.identifier:TFCCId.value</t>
-  </si>
-  <si>
-    <t>Medication.identifier:TFCCId.period</t>
-  </si>
-  <si>
-    <t>Medication.identifier:TFCCId.assigner</t>
-  </si>
-  <si>
-    <t>Medication.identifier:Otro</t>
-  </si>
-  <si>
-    <t>Otro</t>
-  </si>
-  <si>
-    <t>Otro identificador asignado</t>
-  </si>
-  <si>
-    <t>Cualquier otro identificador que se haya asignado al fármaco</t>
-  </si>
-  <si>
-    <t>Medication.identifier:Otro.id</t>
-  </si>
-  <si>
-    <t>Medication.identifier:Otro.extension</t>
-  </si>
-  <si>
-    <t>Medication.identifier:Otro.use</t>
-  </si>
-  <si>
-    <t>Medication.identifier:Otro.type</t>
-  </si>
-  <si>
-    <t>Medication.identifier:Otro.system</t>
-  </si>
-  <si>
-    <t>http://take.cl/registro</t>
-  </si>
-  <si>
-    <t>Medication.identifier:Otro.value</t>
-  </si>
-  <si>
-    <t>Medication.identifier:Otro.period</t>
-  </si>
-  <si>
-    <t>Medication.identifier:Otro.assigner</t>
-  </si>
-  <si>
     <t>Medication.code</t>
   </si>
   <si>
-    <t>Codes that identify this medication</t>
+    <t>Código que identifica este medicamento</t>
   </si>
   <si>
     <t>A code (or set of codes) that specify this medication, or a textual description if no code is available. Usage note: This could be a standard medication code such as a code from RxNorm, SNOMED CT, IDMP etc. It could also be a national or local formulary code, optionally with translations to other code systems.</t>
@@ -952,9 +732,6 @@
   </si>
   <si>
     <t>example</t>
-  </si>
-  <si>
-    <t>A coded concept that defines the type of a medication.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
@@ -1000,6 +777,10 @@
     <t>Medication.manufacturer</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CoreOrganizacionCl)
+</t>
+  </si>
+  <si>
     <t>Laboratorio</t>
   </si>
   <si>
@@ -1192,7 +973,7 @@
 Reference(Substance|Medication)</t>
   </si>
   <si>
-    <t>The actual ingredient or content</t>
+    <t>Componente del fármaco</t>
   </si>
   <si>
     <t>The actual ingredient - either a substance (simple ingredient) or another medication of a medication.</t>
@@ -1201,66 +982,10 @@
     <t>The ingredient may reference a substance (for example, amoxicillin) or another medication (for example in the case of a compounded product, Glaxal Base).</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
     <t>.player</t>
   </si>
   <si>
     <t>RXC-2-Component Code  if medication: RXO-1-Requested Give Code / RXE-2-Give Code / RXD-2-Dispense/Give Code / RXG-4-Give Code / RXA-5-Administered Code</t>
-  </si>
-  <si>
-    <t>Medication.ingredient.item[x]:itemReference</t>
-  </si>
-  <si>
-    <t>itemReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Substance|Medication)
-</t>
-  </si>
-  <si>
-    <t>Componente del fármaco, se usará texto</t>
-  </si>
-  <si>
-    <t>Medication.ingredient.item[x]:itemReference.id</t>
-  </si>
-  <si>
-    <t>Medication.ingredient.item[x].id</t>
-  </si>
-  <si>
-    <t>Medication.ingredient.item[x]:itemReference.extension</t>
-  </si>
-  <si>
-    <t>Medication.ingredient.item[x].extension</t>
-  </si>
-  <si>
-    <t>Medication.ingredient.item[x]:itemReference.reference</t>
-  </si>
-  <si>
-    <t>Medication.ingredient.item[x].reference</t>
-  </si>
-  <si>
-    <t>Medication.ingredient.item[x]:itemReference.type</t>
-  </si>
-  <si>
-    <t>Medication.ingredient.item[x].type</t>
-  </si>
-  <si>
-    <t>Medication.ingredient.item[x]:itemReference.identifier</t>
-  </si>
-  <si>
-    <t>Medication.ingredient.item[x].identifier</t>
-  </si>
-  <si>
-    <t>Medication.ingredient.item[x]:itemReference.display</t>
-  </si>
-  <si>
-    <t>Medication.ingredient.item[x].display</t>
-  </si>
-  <si>
-    <t>descripción del componente</t>
   </si>
   <si>
     <t>Medication.ingredient.isActive</t>
@@ -1311,7 +1036,7 @@
 </t>
   </si>
   <si>
-    <t>Numerador de la potencia</t>
+    <t>Valor del Numerador</t>
   </si>
   <si>
     <t>The value of the numerator.</t>
@@ -1336,9 +1061,6 @@
 </t>
   </si>
   <si>
-    <t>Valor del Numerador</t>
-  </si>
-  <si>
     <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
   </si>
   <si>
@@ -1390,10 +1112,13 @@
     <t>Medication.ingredient.strength.numerator.unit</t>
   </si>
   <si>
-    <t>Unidad</t>
+    <t>Unidad del Numerador</t>
   </si>
   <si>
     <t>A human-readable form of the unit.</t>
+  </si>
+  <si>
+    <t>El valor de la unidad del numerador debe ser el mismo que el del denominador</t>
   </si>
   <si>
     <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
@@ -1454,6 +1179,9 @@
     <t>Medication.ingredient.strength.denominator</t>
   </si>
   <si>
+    <t>Valor del Denominador</t>
+  </si>
+  <si>
     <t>The value of the denominator.</t>
   </si>
   <si>
@@ -1476,6 +1204,12 @@
   </si>
   <si>
     <t>Medication.ingredient.strength.denominator.unit</t>
+  </si>
+  <si>
+    <t>Unidad del Denominador</t>
+  </si>
+  <si>
+    <t>El valor de la unidad del denominador debe ser el mismo que el del numerador</t>
   </si>
   <si>
     <t>Medication.ingredient.strength.denominator.system</t>
@@ -1855,7 +1589,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN106"/>
+  <dimension ref="A1:AN62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1874,7 +1608,7 @@
     <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="75.28125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="76.35546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3180,7 +2914,7 @@
         <v>80</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>78</v>
@@ -3236,14 +2970,16 @@
         <v>78</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AC12" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>153</v>
@@ -3264,10 +3000,10 @@
         <v>78</v>
       </c>
       <c r="AL12" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>78</v>
@@ -3275,14 +3011,12 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
         <v>78</v>
       </c>
@@ -3294,26 +3028,24 @@
         <v>88</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M13" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="N13" t="s" s="2">
-        <v>164</v>
-      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>78</v>
@@ -3362,28 +3094,28 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>78</v>
@@ -3391,21 +3123,21 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>166</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>78</v>
@@ -3417,15 +3149,17 @@
         <v>78</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="M14" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N14" s="2"/>
+      <c r="N14" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>78</v>
@@ -3462,16 +3196,16 @@
         <v>78</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>170</v>
@@ -3480,19 +3214,19 @@
         <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>78</v>
@@ -3503,44 +3237,46 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="N15" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="N15" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>78</v>
       </c>
@@ -3564,63 +3300,63 @@
         <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>78</v>
+        <v>177</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>176</v>
+        <v>78</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>78</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3637,25 +3373,25 @@
         <v>78</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>108</v>
+        <v>182</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>78</v>
@@ -3680,13 +3416,13 @@
         <v>78</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>78</v>
@@ -3704,7 +3440,7 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3722,21 +3458,21 @@
         <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>131</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3750,7 +3486,7 @@
         <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>78</v>
@@ -3759,19 +3495,19 @@
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>191</v>
+        <v>102</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>78</v>
@@ -3784,7 +3520,7 @@
         <v>78</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>78</v>
@@ -3796,31 +3532,31 @@
         <v>78</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>196</v>
+        <v>78</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>197</v>
+        <v>78</v>
       </c>
       <c r="Z17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3838,7 +3574,7 @@
         <v>78</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>78</v>
@@ -3852,7 +3588,7 @@
         <v>201</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3860,7 +3596,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>88</v>
@@ -3875,20 +3611,18 @@
         <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="N18" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>206</v>
-      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>78</v>
       </c>
@@ -3897,10 +3631,10 @@
         <v>78</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>207</v>
+        <v>78</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>78</v>
@@ -3936,7 +3670,7 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -3954,21 +3688,21 @@
         <v>78</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3982,7 +3716,7 @@
         <v>88</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>78</v>
@@ -3991,17 +3725,15 @@
         <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>167</v>
+        <v>210</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>78</v>
@@ -4014,7 +3746,7 @@
         <v>78</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>217</v>
+        <v>78</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>78</v>
@@ -4050,7 +3782,7 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -4068,21 +3800,21 @@
         <v>78</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4105,15 +3837,17 @@
         <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>78</v>
@@ -4162,7 +3896,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4180,21 +3914,21 @@
         <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4208,7 +3942,7 @@
         <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>78</v>
@@ -4217,16 +3951,16 @@
         <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4252,13 +3986,11 @@
         <v>78</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>78</v>
+        <v>229</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>78</v>
@@ -4276,7 +4008,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4291,28 +4023,26 @@
         <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>78</v>
+        <v>230</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>78</v>
+        <v>232</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
         <v>78</v>
       </c>
@@ -4327,22 +4057,22 @@
         <v>78</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>164</v>
+        <v>237</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4368,13 +4098,13 @@
         <v>78</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>78</v>
+        <v>238</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>78</v>
+        <v>239</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>78</v>
@@ -4392,13 +4122,13 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>153</v>
+        <v>234</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>78</v>
@@ -4410,10 +4140,10 @@
         <v>78</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>159</v>
+        <v>240</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>78</v>
@@ -4421,10 +4151,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>166</v>
+        <v>241</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4438,22 +4168,22 @@
         <v>88</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>168</v>
+        <v>243</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>169</v>
+        <v>244</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4504,7 +4234,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>170</v>
+        <v>241</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4516,38 +4246,38 @@
         <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>78</v>
+        <v>245</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>171</v>
+        <v>246</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>78</v>
+        <v>247</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>78</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>173</v>
+        <v>249</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>78</v>
@@ -4559,17 +4289,15 @@
         <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>78</v>
@@ -4606,37 +4334,37 @@
         <v>78</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>176</v>
+        <v>78</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>78</v>
@@ -4647,46 +4375,44 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>179</v>
+        <v>250</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>78</v>
       </c>
@@ -4710,63 +4436,63 @@
         <v>78</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4780,7 +4506,7 @@
         <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>78</v>
@@ -4789,20 +4515,18 @@
         <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>192</v>
+        <v>252</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>193</v>
+        <v>253</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>78</v>
       </c>
@@ -4826,13 +4550,13 @@
         <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>196</v>
+        <v>78</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>197</v>
+        <v>78</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>198</v>
+        <v>78</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>78</v>
@@ -4850,7 +4574,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>199</v>
+        <v>255</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4859,7 +4583,7 @@
         <v>88</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>78</v>
+        <v>256</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>100</v>
@@ -4868,21 +4592,21 @@
         <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>188</v>
+        <v>131</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>200</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>202</v>
+        <v>257</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4890,13 +4614,13 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>78</v>
@@ -4908,17 +4632,15 @@
         <v>102</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>203</v>
+        <v>258</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>204</v>
+        <v>259</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>78</v>
       </c>
@@ -4927,10 +4649,10 @@
         <v>78</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>247</v>
+        <v>78</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>78</v>
@@ -4942,13 +4664,13 @@
         <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>78</v>
+        <v>261</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>78</v>
+        <v>262</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>78</v>
@@ -4966,7 +4688,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>209</v>
+        <v>263</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4984,21 +4706,21 @@
         <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>210</v>
+        <v>131</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>211</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>213</v>
+        <v>264</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5012,7 +4734,7 @@
         <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>78</v>
@@ -5021,16 +4743,16 @@
         <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>215</v>
+        <v>266</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>216</v>
+        <v>267</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5044,7 +4766,7 @@
         <v>78</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>217</v>
+        <v>78</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>78</v>
@@ -5080,7 +4802,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>218</v>
+        <v>268</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5098,21 +4820,21 @@
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>220</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>222</v>
+        <v>270</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5126,7 +4848,7 @@
         <v>88</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>78</v>
@@ -5135,15 +4857,17 @@
         <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>224</v>
+        <v>271</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>78</v>
@@ -5192,7 +4916,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>226</v>
+        <v>274</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5210,21 +4934,21 @@
         <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>227</v>
+        <v>131</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>228</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>230</v>
+        <v>275</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5238,25 +4962,25 @@
         <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>232</v>
+        <v>276</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>233</v>
+        <v>277</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>234</v>
+        <v>278</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5282,13 +5006,11 @@
         <v>78</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
-        <v>78</v>
+        <v>279</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>78</v>
@@ -5306,7 +5028,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>235</v>
+        <v>275</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5321,28 +5043,26 @@
         <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>78</v>
+        <v>280</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>236</v>
+        <v>281</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>237</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
         <v>78</v>
       </c>
@@ -5354,7 +5074,7 @@
         <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>78</v>
@@ -5363,17 +5083,15 @@
         <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>154</v>
+        <v>284</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>78</v>
@@ -5422,13 +5140,13 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>153</v>
+        <v>283</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>78</v>
@@ -5440,10 +5158,10 @@
         <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>159</v>
+        <v>287</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
@@ -5451,10 +5169,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>166</v>
+        <v>288</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5465,10 +5183,10 @@
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>78</v>
@@ -5477,15 +5195,17 @@
         <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>167</v>
+        <v>289</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>168</v>
+        <v>290</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>78</v>
@@ -5534,25 +5254,25 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>170</v>
+        <v>288</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>171</v>
+        <v>293</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>78</v>
@@ -5563,21 +5283,21 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>257</v>
+        <v>294</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>173</v>
+        <v>294</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>78</v>
@@ -5589,17 +5309,15 @@
         <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>78</v>
@@ -5636,37 +5354,37 @@
         <v>78</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>176</v>
+        <v>78</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>78</v>
@@ -5677,46 +5395,44 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>258</v>
+        <v>295</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>179</v>
+        <v>295</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>259</v>
+        <v>167</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>260</v>
+        <v>168</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>78</v>
       </c>
@@ -5725,7 +5441,7 @@
         <v>78</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>261</v>
+        <v>78</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>78</v>
@@ -5740,13 +5456,13 @@
         <v>78</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>78</v>
@@ -5764,74 +5480,74 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>262</v>
+        <v>296</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>190</v>
+        <v>296</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>78</v>
+        <v>297</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>191</v>
+        <v>133</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>192</v>
+        <v>298</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>193</v>
+        <v>299</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>194</v>
+        <v>150</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>78</v>
@@ -5856,13 +5572,13 @@
         <v>78</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>196</v>
+        <v>78</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>197</v>
+        <v>78</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>198</v>
+        <v>78</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>78</v>
@@ -5880,39 +5596,39 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>199</v>
+        <v>300</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>188</v>
+        <v>131</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>200</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>202</v>
+        <v>301</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5926,28 +5642,26 @@
         <v>88</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>102</v>
+        <v>302</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>264</v>
+        <v>303</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>206</v>
+        <v>305</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>78</v>
@@ -5957,10 +5671,10 @@
         <v>78</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>266</v>
+        <v>78</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="U36" t="s" s="2">
         <v>78</v>
@@ -5996,10 +5710,10 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>209</v>
+        <v>301</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>88</v>
@@ -6011,24 +5725,24 @@
         <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>78</v>
+        <v>230</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>210</v>
+        <v>306</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>211</v>
+        <v>307</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>267</v>
+        <v>308</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>213</v>
+        <v>308</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6042,27 +5756,27 @@
         <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>167</v>
+        <v>309</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>268</v>
+        <v>310</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>78</v>
       </c>
@@ -6074,7 +5788,7 @@
         <v>78</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>217</v>
+        <v>78</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>78</v>
@@ -6110,7 +5824,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>218</v>
+        <v>308</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6128,21 +5842,21 @@
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>219</v>
+        <v>313</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>220</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>269</v>
+        <v>314</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>222</v>
+        <v>314</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6156,22 +5870,22 @@
         <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>223</v>
+        <v>284</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>224</v>
+        <v>315</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>225</v>
+        <v>316</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6222,7 +5936,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>226</v>
+        <v>314</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6237,24 +5951,24 @@
         <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>78</v>
+        <v>317</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>227</v>
+        <v>287</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>228</v>
+        <v>318</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>270</v>
+        <v>319</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>230</v>
+        <v>319</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6274,20 +5988,18 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>231</v>
+        <v>161</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>232</v>
+        <v>162</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>78</v>
@@ -6336,7 +6048,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>235</v>
+        <v>164</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6348,61 +6060,59 @@
         <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>236</v>
+        <v>165</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>237</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>271</v>
+        <v>320</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="C40" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>254</v>
+        <v>167</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>255</v>
+        <v>168</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6440,19 +6150,19 @@
         <v>78</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6464,16 +6174,16 @@
         <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>78</v>
@@ -6481,10 +6191,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>273</v>
+        <v>321</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>166</v>
+        <v>321</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6498,22 +6208,22 @@
         <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>167</v>
+        <v>322</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>168</v>
+        <v>323</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>169</v>
+        <v>324</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6564,7 +6274,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>170</v>
+        <v>325</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6576,13 +6286,13 @@
         <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>171</v>
+        <v>326</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>78</v>
@@ -6593,21 +6303,21 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>274</v>
+        <v>327</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>173</v>
+        <v>327</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>78</v>
@@ -6619,17 +6329,15 @@
         <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -6666,37 +6374,37 @@
         <v>78</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>176</v>
+        <v>78</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>78</v>
@@ -6707,46 +6415,44 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>275</v>
+        <v>328</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>179</v>
+        <v>328</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>259</v>
+        <v>167</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>260</v>
+        <v>168</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>78</v>
       </c>
@@ -6755,7 +6461,7 @@
         <v>78</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>261</v>
+        <v>78</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>78</v>
@@ -6770,63 +6476,63 @@
         <v>78</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>276</v>
+        <v>329</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>190</v>
+        <v>329</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6849,19 +6555,19 @@
         <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>191</v>
+        <v>330</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>192</v>
+        <v>323</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>193</v>
+        <v>331</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>194</v>
+        <v>332</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>195</v>
+        <v>333</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>78</v>
@@ -6886,13 +6592,13 @@
         <v>78</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>196</v>
+        <v>78</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>197</v>
+        <v>78</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>198</v>
+        <v>78</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>78</v>
@@ -6910,7 +6616,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>199</v>
+        <v>334</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -6928,21 +6634,21 @@
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>188</v>
+        <v>335</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>200</v>
+        <v>336</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>277</v>
+        <v>337</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>202</v>
+        <v>337</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6950,7 +6656,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>88</v>
@@ -6959,38 +6665,38 @@
         <v>78</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>278</v>
+        <v>338</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>206</v>
+        <v>340</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="R45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>280</v>
+        <v>78</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>78</v>
@@ -7002,13 +6708,13 @@
         <v>78</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>78</v>
+        <v>342</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>78</v>
+        <v>343</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>78</v>
@@ -7026,7 +6732,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>209</v>
+        <v>344</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7044,21 +6750,21 @@
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>210</v>
+        <v>345</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>211</v>
+        <v>346</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>281</v>
+        <v>347</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>213</v>
+        <v>347</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7081,18 +6787,20 @@
         <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>268</v>
+        <v>348</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>268</v>
+        <v>349</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>78</v>
       </c>
@@ -7104,7 +6812,7 @@
         <v>78</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>217</v>
+        <v>78</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>78</v>
@@ -7140,7 +6848,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>218</v>
+        <v>352</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7158,21 +6866,21 @@
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>219</v>
+        <v>353</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>220</v>
+        <v>354</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>282</v>
+        <v>355</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>222</v>
+        <v>355</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7195,16 +6903,18 @@
         <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>223</v>
+        <v>102</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>224</v>
+        <v>356</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>225</v>
+        <v>357</v>
       </c>
       <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>78</v>
       </c>
@@ -7252,7 +6962,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>226</v>
+        <v>359</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7261,7 +6971,7 @@
         <v>88</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>78</v>
+        <v>360</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>100</v>
@@ -7270,21 +6980,21 @@
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>227</v>
+        <v>361</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>228</v>
+        <v>354</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>283</v>
+        <v>362</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>230</v>
+        <v>362</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7307,18 +7017,20 @@
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>231</v>
+        <v>108</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>232</v>
+        <v>363</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>233</v>
+        <v>364</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="O48" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>78</v>
       </c>
@@ -7366,7 +7078,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>235</v>
+        <v>367</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7384,25 +7096,23 @@
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>236</v>
+        <v>368</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>237</v>
+        <v>354</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>284</v>
+        <v>369</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
         <v>78</v>
       </c>
@@ -7414,7 +7124,7 @@
         <v>88</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>78</v>
@@ -7423,17 +7133,15 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>154</v>
+        <v>322</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>286</v>
+        <v>370</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>78</v>
@@ -7482,13 +7190,13 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>153</v>
+        <v>372</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>78</v>
@@ -7500,10 +7208,10 @@
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>159</v>
+        <v>373</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>78</v>
@@ -7511,10 +7219,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>288</v>
+        <v>374</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>166</v>
+        <v>374</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7537,13 +7245,13 @@
         <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7594,7 +7302,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7612,7 +7320,7 @@
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>78</v>
@@ -7623,10 +7331,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>289</v>
+        <v>375</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>173</v>
+        <v>375</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7652,10 +7360,10 @@
         <v>133</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="N51" t="s" s="2">
         <v>150</v>
@@ -7699,7 +7407,7 @@
         <v>136</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>78</v>
@@ -7708,7 +7416,7 @@
         <v>137</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7726,7 +7434,7 @@
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>78</v>
@@ -7737,10 +7445,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>290</v>
+        <v>376</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>179</v>
+        <v>376</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7757,25 +7465,25 @@
         <v>78</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>108</v>
+        <v>330</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>180</v>
+        <v>370</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>181</v>
+        <v>331</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>182</v>
+        <v>332</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>183</v>
+        <v>333</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>78</v>
@@ -7800,13 +7508,13 @@
         <v>78</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>78</v>
@@ -7824,7 +7532,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>187</v>
+        <v>334</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7842,21 +7550,21 @@
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>188</v>
+        <v>335</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>131</v>
+        <v>336</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>291</v>
+        <v>377</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>190</v>
+        <v>377</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7873,30 +7581,30 @@
         <v>78</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>191</v>
+        <v>108</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>192</v>
+        <v>338</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>195</v>
+        <v>340</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="R53" t="s" s="2">
         <v>78</v>
       </c>
@@ -7916,13 +7624,13 @@
         <v>78</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>197</v>
+        <v>342</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>198</v>
+        <v>343</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>78</v>
@@ -7940,7 +7648,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>199</v>
+        <v>344</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -7958,21 +7666,21 @@
         <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>188</v>
+        <v>345</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>200</v>
+        <v>346</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>292</v>
+        <v>378</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>202</v>
+        <v>378</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7980,13 +7688,13 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>78</v>
@@ -7995,19 +7703,19 @@
         <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>203</v>
+        <v>379</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>204</v>
+        <v>349</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>205</v>
+        <v>380</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>206</v>
+        <v>351</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>78</v>
@@ -8017,10 +7725,10 @@
         <v>78</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>293</v>
+        <v>78</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="U54" t="s" s="2">
         <v>78</v>
@@ -8056,7 +7764,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>209</v>
+        <v>352</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8074,21 +7782,21 @@
         <v>78</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>210</v>
+        <v>353</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>211</v>
+        <v>354</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>294</v>
+        <v>381</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>213</v>
+        <v>381</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8102,7 +7810,7 @@
         <v>88</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>78</v>
@@ -8111,18 +7819,18 @@
         <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>167</v>
+        <v>102</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>249</v>
+        <v>356</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="O55" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>78</v>
       </c>
@@ -8134,7 +7842,7 @@
         <v>78</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>217</v>
+        <v>78</v>
       </c>
       <c r="U55" t="s" s="2">
         <v>78</v>
@@ -8170,7 +7878,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>218</v>
+        <v>359</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8179,7 +7887,7 @@
         <v>88</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>78</v>
+        <v>360</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>100</v>
@@ -8188,21 +7896,21 @@
         <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>219</v>
+        <v>361</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>220</v>
+        <v>354</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>295</v>
+        <v>382</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>222</v>
+        <v>382</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8225,16 +7933,20 @@
         <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>224</v>
+        <v>363</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>78</v>
       </c>
@@ -8282,7 +7994,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>226</v>
+        <v>367</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8300,21 +8012,21 @@
         <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>227</v>
+        <v>368</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>228</v>
+        <v>354</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>296</v>
+        <v>383</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>230</v>
+        <v>383</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8334,20 +8046,18 @@
         <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>231</v>
+        <v>289</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>232</v>
+        <v>384</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>78</v>
@@ -8396,7 +8106,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>235</v>
+        <v>383</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8411,24 +8121,24 @@
         <v>100</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>78</v>
+        <v>245</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>236</v>
+        <v>386</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>237</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>297</v>
+        <v>387</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>297</v>
+        <v>387</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8448,20 +8158,18 @@
         <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>298</v>
+        <v>162</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>78</v>
@@ -8486,13 +8194,13 @@
         <v>78</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>301</v>
+        <v>78</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>302</v>
+        <v>78</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>303</v>
+        <v>78</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>78</v>
@@ -8510,7 +8218,7 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>297</v>
+        <v>164</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8522,59 +8230,59 @@
         <v>78</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>304</v>
+        <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>305</v>
+        <v>165</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>306</v>
+        <v>78</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>307</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>308</v>
+        <v>388</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>308</v>
+        <v>388</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>309</v>
+        <v>167</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>310</v>
+        <v>168</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>311</v>
+        <v>150</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8600,13 +8308,13 @@
         <v>78</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>312</v>
+        <v>78</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>313</v>
+        <v>78</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>78</v>
@@ -8624,25 +8332,25 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>308</v>
+        <v>170</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>314</v>
+        <v>165</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>78</v>
@@ -8653,42 +8361,46 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>315</v>
+        <v>389</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>315</v>
+        <v>389</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>78</v>
+        <v>297</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I60" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>231</v>
+        <v>133</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>78</v>
       </c>
@@ -8736,39 +8448,39 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>318</v>
+        <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>319</v>
+        <v>131</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>320</v>
+        <v>78</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>321</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>322</v>
+        <v>390</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>322</v>
+        <v>390</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8791,13 +8503,13 @@
         <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>168</v>
+        <v>391</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>169</v>
+        <v>392</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8848,7 +8560,7 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>170</v>
+        <v>390</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -8860,38 +8572,38 @@
         <v>78</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>78</v>
+        <v>245</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>78</v>
+        <v>393</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>323</v>
+        <v>394</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>323</v>
+        <v>394</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>78</v>
@@ -8903,17 +8615,15 @@
         <v>78</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>133</v>
+        <v>395</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>174</v>
+        <v>396</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>78</v>
@@ -8950,5051 +8660,47 @@
         <v>78</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>176</v>
+        <v>78</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>177</v>
+        <v>394</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>78</v>
+        <v>245</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>171</v>
+        <v>398</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" hidden="true">
-      <c r="A63" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="O63" s="2"/>
-      <c r="P63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q63" s="2"/>
-      <c r="R63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" hidden="true">
-      <c r="A64" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="O64" s="2"/>
-      <c r="P64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q64" s="2"/>
-      <c r="R64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" hidden="true">
-      <c r="A65" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="O65" s="2"/>
-      <c r="P65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q65" s="2"/>
-      <c r="R65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" hidden="true">
-      <c r="A66" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="F66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="O66" s="2"/>
-      <c r="P66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q66" s="2"/>
-      <c r="R66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="67" hidden="true">
-      <c r="A67" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E67" s="2"/>
-      <c r="F67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="O67" s="2"/>
-      <c r="P67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q67" s="2"/>
-      <c r="R67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="Y67" s="2"/>
-      <c r="Z67" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q68" s="2"/>
-      <c r="R68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="69" hidden="true">
-      <c r="A69" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E69" s="2"/>
-      <c r="F69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="O69" s="2"/>
-      <c r="P69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q69" s="2"/>
-      <c r="R69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
-      <c r="P70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q70" s="2"/>
-      <c r="R70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O71" s="2"/>
-      <c r="P71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q71" s="2"/>
-      <c r="R71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="E72" s="2"/>
-      <c r="F72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="P72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q72" s="2"/>
-      <c r="R72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="P73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q73" s="2"/>
-      <c r="R73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AC73" s="2"/>
-      <c r="AD73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="C74" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="D74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="P74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q74" s="2"/>
-      <c r="R74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
-      <c r="P75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q75" s="2"/>
-      <c r="R75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O76" s="2"/>
-      <c r="P76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q76" s="2"/>
-      <c r="R76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="O77" s="2"/>
-      <c r="P77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q77" s="2"/>
-      <c r="R77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E78" s="2"/>
-      <c r="F78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="O78" s="2"/>
-      <c r="P78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q78" s="2"/>
-      <c r="R78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="F79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="O79" s="2"/>
-      <c r="P79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q79" s="2"/>
-      <c r="R79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="F80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="O80" s="2"/>
-      <c r="P80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q80" s="2"/>
-      <c r="R80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="81" hidden="true">
-      <c r="A81" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="D81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E81" s="2"/>
-      <c r="F81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="P81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q81" s="2"/>
-      <c r="R81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="82" hidden="true">
-      <c r="A82" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
-      <c r="P82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q82" s="2"/>
-      <c r="R82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="83" hidden="true">
-      <c r="A83" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E83" s="2"/>
-      <c r="F83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
-      <c r="P83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q83" s="2"/>
-      <c r="R83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="84" hidden="true">
-      <c r="A84" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="E84" s="2"/>
-      <c r="F84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O84" s="2"/>
-      <c r="P84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q84" s="2"/>
-      <c r="R84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="85" hidden="true">
-      <c r="A85" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E85" s="2"/>
-      <c r="F85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
-      <c r="P85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q85" s="2"/>
-      <c r="R85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="86" hidden="true">
-      <c r="A86" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E86" s="2"/>
-      <c r="F86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N86" s="2"/>
-      <c r="O86" s="2"/>
-      <c r="P86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q86" s="2"/>
-      <c r="R86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="87" hidden="true">
-      <c r="A87" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="E87" s="2"/>
-      <c r="F87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O87" s="2"/>
-      <c r="P87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q87" s="2"/>
-      <c r="R87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="88" hidden="true">
-      <c r="A88" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E88" s="2"/>
-      <c r="F88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="P88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q88" s="2"/>
-      <c r="R88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="89" hidden="true">
-      <c r="A89" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E89" s="2"/>
-      <c r="F89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N89" s="2"/>
-      <c r="O89" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="P89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q89" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="R89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="90" hidden="true">
-      <c r="A90" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E90" s="2"/>
-      <c r="F90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="N90" s="2"/>
-      <c r="O90" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="P90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q90" s="2"/>
-      <c r="R90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="91" hidden="true">
-      <c r="A91" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="B91" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="C91" s="2"/>
-      <c r="D91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E91" s="2"/>
-      <c r="F91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N91" s="2"/>
-      <c r="O91" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="P91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q91" s="2"/>
-      <c r="R91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="92" hidden="true">
-      <c r="A92" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="B92" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E92" s="2"/>
-      <c r="F92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="P92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q92" s="2"/>
-      <c r="R92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="93" hidden="true">
-      <c r="A93" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="B93" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="D93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E93" s="2"/>
-      <c r="F93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N93" s="2"/>
-      <c r="O93" s="2"/>
-      <c r="P93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q93" s="2"/>
-      <c r="R93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="94" hidden="true">
-      <c r="A94" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B94" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="D94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E94" s="2"/>
-      <c r="F94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N94" s="2"/>
-      <c r="O94" s="2"/>
-      <c r="P94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q94" s="2"/>
-      <c r="R94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="95" hidden="true">
-      <c r="A95" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="B95" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="C95" s="2"/>
-      <c r="D95" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="E95" s="2"/>
-      <c r="F95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O95" s="2"/>
-      <c r="P95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q95" s="2"/>
-      <c r="R95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="96" hidden="true">
-      <c r="A96" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="B96" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E96" s="2"/>
-      <c r="F96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="P96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q96" s="2"/>
-      <c r="R96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="97" hidden="true">
-      <c r="A97" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="B97" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="C97" s="2"/>
-      <c r="D97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E97" s="2"/>
-      <c r="F97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N97" s="2"/>
-      <c r="O97" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="P97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q97" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="R97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="98" hidden="true">
-      <c r="A98" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="C98" s="2"/>
-      <c r="D98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E98" s="2"/>
-      <c r="F98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="N98" s="2"/>
-      <c r="O98" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="P98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q98" s="2"/>
-      <c r="R98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="99" hidden="true">
-      <c r="A99" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="C99" s="2"/>
-      <c r="D99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E99" s="2"/>
-      <c r="F99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N99" s="2"/>
-      <c r="O99" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="P99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q99" s="2"/>
-      <c r="R99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="100" hidden="true">
-      <c r="A100" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="B100" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="C100" s="2"/>
-      <c r="D100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E100" s="2"/>
-      <c r="F100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="P100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q100" s="2"/>
-      <c r="R100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="101" hidden="true">
-      <c r="A101" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="B101" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="C101" s="2"/>
-      <c r="D101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E101" s="2"/>
-      <c r="F101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="N101" s="2"/>
-      <c r="O101" s="2"/>
-      <c r="P101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q101" s="2"/>
-      <c r="R101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="102" hidden="true">
-      <c r="A102" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="B102" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="C102" s="2"/>
-      <c r="D102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E102" s="2"/>
-      <c r="F102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N102" s="2"/>
-      <c r="O102" s="2"/>
-      <c r="P102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q102" s="2"/>
-      <c r="R102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="103" hidden="true">
-      <c r="A103" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="B103" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="C103" s="2"/>
-      <c r="D103" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="E103" s="2"/>
-      <c r="F103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O103" s="2"/>
-      <c r="P103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q103" s="2"/>
-      <c r="R103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="104" hidden="true">
-      <c r="A104" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="B104" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="C104" s="2"/>
-      <c r="D104" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="E104" s="2"/>
-      <c r="F104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O104" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="P104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q104" s="2"/>
-      <c r="R104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN104" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="105" hidden="true">
-      <c r="A105" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="B105" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="C105" s="2"/>
-      <c r="D105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E105" s="2"/>
-      <c r="F105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="N105" s="2"/>
-      <c r="O105" s="2"/>
-      <c r="P105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q105" s="2"/>
-      <c r="R105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN105" t="s" s="2">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="106" hidden="true">
-      <c r="A106" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="C106" s="2"/>
-      <c r="D106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E106" s="2"/>
-      <c r="F106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="N106" s="2"/>
-      <c r="O106" s="2"/>
-      <c r="P106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q106" s="2"/>
-      <c r="R106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN106" t="s" s="2">
-        <v>487</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN106">
+  <autoFilter ref="A1:AN62">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14004,7 +8710,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI105">
+  <conditionalFormatting sqref="A2:AI61">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-CoreMedicamentoCl.xlsx
+++ b/output/StructureDefinition-CoreMedicamentoCl.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.12</t>
+    <t>1.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-29T12:24:08-04:00</t>
+    <t>2024-08-05T12:01:08-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CoreMedicamentoCl.xlsx
+++ b/output/StructureDefinition-CoreMedicamentoCl.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$64</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2266" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2338" uniqueCount="408">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-05T12:01:08-04:00</t>
+    <t>2024-08-06T12:35:59-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Descriopción Medicamento</t>
+    <t>Descripción de un Medicamento</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -982,10 +982,36 @@
     <t>The ingredient may reference a substance (for example, amoxicillin) or another medication (for example in the case of a compounded product, Glaxal Base).</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>.player</t>
   </si>
   <si>
     <t>RXC-2-Component Code  if medication: RXO-1-Requested Give Code / RXE-2-Give Code / RXD-2-Dispense/Give Code / RXG-4-Give Code / RXA-5-Administered Code</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.item[x]:itemCodeableConcept</t>
+  </si>
+  <si>
+    <t>itemCodeableConcept</t>
+  </si>
+  <si>
+    <t>The actual ingredient or content</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.item[x]:itemReference</t>
+  </si>
+  <si>
+    <t>itemReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Substance|https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CoreMedicamentoCl)
+</t>
   </si>
   <si>
     <t>Medication.ingredient.isActive</t>
@@ -1589,7 +1615,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN62"/>
+  <dimension ref="A1:AN64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1600,7 +1626,7 @@
   <cols>
     <col min="1" max="1" width="52.4296875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="52.4296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.33984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="20.9296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1608,7 +1634,7 @@
     <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="76.35546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="87.3984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -5698,16 +5724,14 @@
         <v>78</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="AC36" s="2"/>
       <c r="AD36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>78</v>
+        <v>307</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>301</v>
@@ -5728,23 +5752,25 @@
         <v>230</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="D37" t="s" s="2">
         <v>78</v>
       </c>
@@ -5756,7 +5782,7 @@
         <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>78</v>
@@ -5765,17 +5791,17 @@
         <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>309</v>
+        <v>182</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -5800,13 +5826,11 @@
         <v>78</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>78</v>
+        <v>229</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>78</v>
@@ -5824,10 +5848,10 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>88</v>
@@ -5839,26 +5863,28 @@
         <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>78</v>
+        <v>230</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>78</v>
+        <v>309</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="C38" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="B38" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
         <v>78</v>
       </c>
@@ -5870,7 +5896,7 @@
         <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>78</v>
@@ -5879,16 +5905,18 @@
         <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>78</v>
       </c>
@@ -5936,10 +5964,10 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>88</v>
@@ -5951,24 +5979,24 @@
         <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>317</v>
+        <v>230</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>318</v>
+        <v>309</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5982,7 +6010,7 @@
         <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>78</v>
@@ -5991,16 +6019,18 @@
         <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>161</v>
+        <v>317</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>163</v>
+        <v>319</v>
       </c>
       <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>78</v>
       </c>
@@ -6048,7 +6078,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>164</v>
+        <v>316</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6060,13 +6090,13 @@
         <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>165</v>
+        <v>321</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
@@ -6077,24 +6107,24 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>78</v>
@@ -6103,17 +6133,15 @@
         <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>133</v>
+        <v>284</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>167</v>
+        <v>323</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>78</v>
@@ -6150,51 +6178,51 @@
         <v>78</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>170</v>
+        <v>322</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>78</v>
+        <v>325</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>165</v>
+        <v>287</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>78</v>
+        <v>326</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6208,22 +6236,22 @@
         <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>322</v>
+        <v>161</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>323</v>
+        <v>162</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>324</v>
+        <v>163</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6274,7 +6302,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>325</v>
+        <v>164</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6286,13 +6314,13 @@
         <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>326</v>
+        <v>165</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>78</v>
@@ -6303,21 +6331,21 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>78</v>
@@ -6329,15 +6357,17 @@
         <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -6374,31 +6404,31 @@
         <v>78</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>78</v>
@@ -6415,43 +6445,41 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>133</v>
+        <v>330</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>167</v>
+        <v>331</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>78</v>
@@ -6488,37 +6516,37 @@
         <v>78</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>170</v>
+        <v>333</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>165</v>
+        <v>334</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>78</v>
@@ -6529,10 +6557,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6552,23 +6580,19 @@
         <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>330</v>
+        <v>161</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>323</v>
+        <v>162</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>78</v>
       </c>
@@ -6616,7 +6640,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>334</v>
+        <v>164</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -6628,67 +6652,65 @@
         <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>335</v>
+        <v>165</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>336</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>338</v>
+        <v>167</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>340</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q45" t="s" s="2">
-        <v>341</v>
-      </c>
+      <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
         <v>78</v>
       </c>
@@ -6708,63 +6730,63 @@
         <v>78</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>176</v>
+        <v>78</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>342</v>
+        <v>78</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>343</v>
+        <v>78</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>344</v>
+        <v>170</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>345</v>
+        <v>165</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>346</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6787,19 +6809,19 @@
         <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>161</v>
+        <v>338</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>78</v>
@@ -6848,7 +6870,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -6866,21 +6888,21 @@
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6897,28 +6919,30 @@
         <v>78</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="R47" t="s" s="2">
         <v>78</v>
       </c>
@@ -6938,13 +6962,13 @@
         <v>78</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>78</v>
+        <v>350</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>78</v>
+        <v>351</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>78</v>
@@ -6962,7 +6986,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -6971,7 +6995,7 @@
         <v>88</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>360</v>
+        <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>100</v>
@@ -6980,7 +7004,7 @@
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>78</v>
@@ -6991,10 +7015,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7017,19 +7041,19 @@
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>78</v>
@@ -7078,7 +7102,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7096,21 +7120,21 @@
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7124,7 +7148,7 @@
         <v>88</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>78</v>
@@ -7133,16 +7157,18 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>322</v>
+        <v>102</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>78</v>
       </c>
@@ -7190,7 +7216,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7199,7 +7225,7 @@
         <v>88</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>78</v>
+        <v>368</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>100</v>
@@ -7208,21 +7234,21 @@
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>78</v>
+        <v>362</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7242,19 +7268,23 @@
         <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>162</v>
+        <v>371</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>78</v>
       </c>
@@ -7302,7 +7332,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>164</v>
+        <v>375</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7314,60 +7344,58 @@
         <v>78</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>165</v>
+        <v>376</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>78</v>
+        <v>362</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>133</v>
+        <v>330</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>167</v>
+        <v>378</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>78</v>
@@ -7404,37 +7432,37 @@
         <v>78</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>170</v>
+        <v>380</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>165</v>
+        <v>381</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>78</v>
@@ -7445,10 +7473,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7468,23 +7496,19 @@
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>330</v>
+        <v>161</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>370</v>
+        <v>162</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>78</v>
       </c>
@@ -7532,7 +7556,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>334</v>
+        <v>164</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7544,67 +7568,65 @@
         <v>78</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>335</v>
+        <v>165</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>336</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>338</v>
+        <v>167</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>340</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q53" t="s" s="2">
-        <v>341</v>
-      </c>
+      <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
         <v>78</v>
       </c>
@@ -7624,63 +7646,63 @@
         <v>78</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>176</v>
+        <v>78</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>342</v>
+        <v>78</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>343</v>
+        <v>78</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>344</v>
+        <v>170</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>345</v>
+        <v>165</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>346</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7703,19 +7725,19 @@
         <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>161</v>
+        <v>338</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>78</v>
@@ -7764,7 +7786,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -7782,21 +7804,21 @@
         <v>78</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7813,28 +7835,30 @@
         <v>78</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="R55" t="s" s="2">
         <v>78</v>
       </c>
@@ -7854,13 +7878,13 @@
         <v>78</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>78</v>
+        <v>350</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>78</v>
+        <v>351</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>78</v>
@@ -7878,7 +7902,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -7887,7 +7911,7 @@
         <v>88</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>360</v>
+        <v>78</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>100</v>
@@ -7896,7 +7920,7 @@
         <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>78</v>
@@ -7907,10 +7931,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7933,19 +7957,19 @@
         <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>365</v>
+        <v>388</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>78</v>
@@ -7994,7 +8018,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8012,21 +8036,21 @@
         <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8046,19 +8070,21 @@
         <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>289</v>
+        <v>102</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>78</v>
       </c>
@@ -8106,7 +8132,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8115,30 +8141,30 @@
         <v>88</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>78</v>
+        <v>368</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>245</v>
+        <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>78</v>
+        <v>362</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8158,19 +8184,23 @@
         <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>162</v>
+        <v>371</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>78</v>
       </c>
@@ -8218,7 +8248,7 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>164</v>
+        <v>375</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8230,38 +8260,38 @@
         <v>78</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>165</v>
+        <v>376</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>78</v>
+        <v>362</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>78</v>
@@ -8273,17 +8303,15 @@
         <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>133</v>
+        <v>289</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>167</v>
+        <v>392</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>78</v>
@@ -8332,25 +8360,25 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>170</v>
+        <v>391</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>78</v>
+        <v>245</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>165</v>
+        <v>394</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>78</v>
@@ -8361,46 +8389,42 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>297</v>
+        <v>78</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>298</v>
+        <v>162</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>78</v>
       </c>
@@ -8448,25 +8472,25 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>300</v>
+        <v>164</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>78</v>
@@ -8477,21 +8501,21 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>78</v>
@@ -8503,15 +8527,17 @@
         <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>391</v>
+        <v>167</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>78</v>
@@ -8560,71 +8586,75 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>390</v>
+        <v>170</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>245</v>
+        <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>393</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>78</v>
+        <v>297</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>395</v>
+        <v>133</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>396</v>
+        <v>298</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>78</v>
       </c>
@@ -8672,35 +8702,259 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>394</v>
+        <v>300</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ62" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AK62" t="s" s="2">
+      <c r="AK63" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AL62" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>399</v>
+      <c r="AL63" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>407</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN62">
+  <autoFilter ref="A1:AN64">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8710,7 +8964,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI61">
+  <conditionalFormatting sqref="A2:AI63">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-CoreMedicamentoCl.xlsx
+++ b/output/StructureDefinition-CoreMedicamentoCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-06T12:35:59-04:00</t>
+    <t>2024-08-06T16:31:07-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CoreMedicamentoCl.xlsx
+++ b/output/StructureDefinition-CoreMedicamentoCl.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Medicamento Core CL</t>
+    <t>CL Medicamento</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-06T16:31:07-04:00</t>
+    <t>2024-08-07T09:55:47-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CoreMedicamentoCl.xlsx
+++ b/output/StructureDefinition-CoreMedicamentoCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-07T09:55:47-04:00</t>
+    <t>2024-08-07T14:23:12-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CoreMedicamentoCl.xlsx
+++ b/output/StructureDefinition-CoreMedicamentoCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-07T14:23:12-04:00</t>
+    <t>2024-08-08T12:45:25-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CoreMedicamentoCl.xlsx
+++ b/output/StructureDefinition-CoreMedicamentoCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-08T12:45:25-04:00</t>
+    <t>2024-08-13T08:05:28-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
